--- a/Assignment/Module 2/Test Scenario.xlsx
+++ b/Assignment/Module 2/Test Scenario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Whatsapp" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,13 @@
     <sheet name="coffee vending machine" sheetId="7" r:id="rId7"/>
     <sheet name="Chair" sheetId="8" r:id="rId8"/>
     <sheet name="facebook" sheetId="9" r:id="rId9"/>
+    <sheet name="Gmail" sheetId="11" r:id="rId10"/>
+    <sheet name="Flipkart" sheetId="12" r:id="rId11"/>
+    <sheet name="Wrist Watch" sheetId="13" r:id="rId12"/>
+    <sheet name="Lift (Elevator)" sheetId="14" r:id="rId13"/>
+    <sheet name="whatsapp group" sheetId="15" r:id="rId14"/>
+    <sheet name="Instagram" sheetId="16" r:id="rId15"/>
+    <sheet name="Sheet8" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="268">
   <si>
     <t>SN</t>
   </si>
@@ -175,219 +182,9 @@
     <t>Verify if the tip or nib of the pen is not destroyed after continuous writing for hours.</t>
   </si>
   <si>
-    <t>Verify the pen stand stand on all land</t>
-  </si>
-  <si>
-    <t>verify the types of shape of the pen stand</t>
-  </si>
-  <si>
-    <t>verify the types of material of pen stand</t>
-  </si>
-  <si>
-    <t>verify the size of pen stand</t>
-  </si>
-  <si>
-    <t>verify the types of test pen stand ( durability,waterproof)</t>
-  </si>
-  <si>
-    <t>verify the pen stand color as per the specification</t>
-  </si>
-  <si>
-    <t> Verify if the door is single door or bi-folded door</t>
-  </si>
-  <si>
-    <t>Verify that the material used in the door body and its parts is as per the specifications</t>
-  </si>
-  <si>
-    <t> Verify if the door is sliding door or rotating door</t>
-  </si>
-  <si>
-    <t>Verify if the door is having peek-hole or not</t>
-  </si>
-  <si>
-    <t> Verify if the door closes automatically or not – spring mechanism</t>
-  </si>
-  <si>
-    <t>verify if the door opens inwards or outwards</t>
-  </si>
-  <si>
-    <t> verify the position, quality and strength of hinges</t>
-  </si>
-  <si>
-    <t>verify the type of locks in the door</t>
-  </si>
-  <si>
-    <t>verify the number of locks in the door interior side or exterior side</t>
-  </si>
-  <si>
-    <t>verify the door condition when used extensively with water</t>
-  </si>
-  <si>
-    <t> verify the door condition in different climatic conditions- temperature, humidity etc.</t>
-  </si>
-  <si>
-    <t>verify the amount of force- pull or push required to open or close the door</t>
-  </si>
-  <si>
-    <t>Verify if the card reader is working correctly. A screen should ask you to insert the pin after inserting the valid card.</t>
-  </si>
-  <si>
-    <t>Verify if the cash dispenser is working as expected.</t>
-  </si>
-  <si>
-    <t>Verify if the receipt printer is working correctly. Which means it can print the data on the paper and the paper comes out properly.</t>
-  </si>
-  <si>
-    <t>Verify if the text on the screen button is visible clearly.</t>
-  </si>
-  <si>
-    <t>Verify the font of the text on the screen buttons.</t>
-  </si>
-  <si>
-    <t>Verify each number button on the Keypad.</t>
-  </si>
-  <si>
-    <t>Verify the functionality of the Cancel button on the Keypad.</t>
-  </si>
-  <si>
-    <t>Verify the text color of the keypad buttons. The numbers should be visible clearly.</t>
-  </si>
-  <si>
-    <t>Verify the language selection option. If the messages or data are displayed in the selected language.</t>
-  </si>
-  <si>
-    <t>Verify the receipt printing functionality after a valid transaction. Whether the printed data is correct or not.</t>
-  </si>
-  <si>
     <t>Insert the card, the correct pin, and print the receipt for available balance.</t>
   </si>
   <si>
-    <t>Verify how much time the system takes to log out.</t>
-  </si>
-  <si>
-    <t>Verify the timeout session functionality.</t>
-  </si>
-  <si>
-    <t>Verify the deposit slot functionality depending on its capability (Cash or cheque or both) by inserting a valid cheque.</t>
-  </si>
-  <si>
-    <t>Verify using different cards (Cards of different banks).</t>
-  </si>
-  <si>
-    <t>Verify the cash withdrawal functionality by inserting some valid amount.</t>
-  </si>
-  <si>
-    <t> Verify if a user can perform only one cash withdrawal transaction per PIN insert.</t>
-  </si>
-  <si>
-    <t>Verify the different combinations of operation and check if there will be a power loss in the middle of the operation.</t>
-  </si>
-  <si>
-    <r>
-      <t>Verify if the Screen buttons are working correctly. For touch screen</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF3A3A3A"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3A3A3A"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> Verify if it is operational and working as per the expectations.</t>
-    </r>
-  </si>
-  <si>
-    <t>Verify that the power cord of the oven is long enough</t>
-  </si>
-  <si>
-    <t>Verify that the usage instruction or user manuals have clear instructions.</t>
-  </si>
-  <si>
-    <t>Verify the oven’s functionality with different kinds of container material.</t>
-  </si>
-  <si>
-    <t>Verify that the temperature regulator works correctly.</t>
-  </si>
-  <si>
-    <t>Verify that the temperature regulator is smooth to operate.</t>
-  </si>
-  <si>
-    <t>Verify that the digital display is clearly visible and functions correctly.</t>
-  </si>
-  <si>
-    <t>Verify that the text written over the oven’s body is clearly readable.</t>
-  </si>
-  <si>
-    <t>Verify the battery requirement of the microwave oven and check that it function’s smoothly at that power.</t>
-  </si>
-  <si>
-    <t>Verify that the oven’s door opens smoothly.</t>
-  </si>
-  <si>
-    <t>Verify that the oven’s door gets closed properly.</t>
-  </si>
-  <si>
-    <t>Verify the ovens functioning with minimum and Maximum attainable temperature.</t>
-  </si>
-  <si>
-    <t>Verify that the oven heats the food at the desired temperature properly.</t>
-  </si>
-  <si>
-    <t>verify the maximum capacity of the oven and test its functioning with that volume of food.</t>
-  </si>
-  <si>
-    <t>verify oven’s functionality with different kinds of food – solid, liquid.</t>
-  </si>
-  <si>
-    <t>verify the oven’s functionality with different food at different temperatures.</t>
-  </si>
-  <si>
-    <t>verify if the power button of the coffee vending machine is working correctly after pressing the power button.</t>
-  </si>
-  <si>
-    <t>verify the indicator lights are displaying correctly when the coffee vending machine is going to switch off or on.</t>
-  </si>
-  <si>
-    <t>verify the former up; the coffee vending machine is working as expected.</t>
-  </si>
-  <si>
-    <t>verify the temperature of is served coffee should be the same temperature</t>
-  </si>
-  <si>
-    <t>verify if some ingredients if finished. Then it should display an error message on the LED screen.</t>
-  </si>
-  <si>
-    <t>verify if a button is pressed multiple times; then, the operation should be performed multiple times. If you have pushed the button five times the coffee button, five should be served.</t>
-  </si>
-  <si>
-    <t>verify there should be a button for passes for extra coffee in the machine</t>
-  </si>
-  <si>
-    <t>verify if the coffee vending machine is built as per the specification document.</t>
-  </si>
-  <si>
-    <t>verify if the brand logo is visible in the specification document.</t>
-  </si>
-  <si>
-    <t>verify the amount of coffee served should be equal to the specification.</t>
-  </si>
-  <si>
-    <t>verify all the buttons present on the coffee vending machine are working correctly.</t>
-  </si>
-  <si>
-    <t>verify for the cup holder dimension as per specification/ or market standard.</t>
-  </si>
-  <si>
     <t>verify the legs of the chair (count )</t>
   </si>
   <si>
@@ -437,13 +234,624 @@
   </si>
   <si>
     <t>Positive Scenario</t>
+  </si>
+  <si>
+    <t>Verify there are minimum two Users should be available for the chat.</t>
+  </si>
+  <si>
+    <t>Verify there are minimum two devices (Desktop, Laptop, Phones etc) should be available.</t>
+  </si>
+  <si>
+    <t>Verify that Chat application has been installed in two devices at least.</t>
+  </si>
+  <si>
+    <t>Verify that any Medium like Internet, Wifi, Bluetooth, Public Switched Telephone Network, W-Lan Network, Lan Network etc. should be available for the Chat functionality.</t>
+  </si>
+  <si>
+    <t>Verify that Users are able to send requests to other Users for chat or not.</t>
+  </si>
+  <si>
+    <t>Verify that how many number of words or characters can be send in a time.</t>
+  </si>
+  <si>
+    <t>Verify that Status (Active, Inactive, Invisible, etc.) of User is changing or not.</t>
+  </si>
+  <si>
+    <t>Verify that User is able to send messages to other offline User.</t>
+  </si>
+  <si>
+    <t>Verify that User is able to see the time of comment in Chat or not.</t>
+  </si>
+  <si>
+    <t>Verify that User is able to sent special characters in Chat or not.</t>
+  </si>
+  <si>
+    <t>Verify that Users are able to create a Chat group or not.</t>
+  </si>
+  <si>
+    <t>Verify there are minimum two Users should be available for the chat or not</t>
+  </si>
+  <si>
+    <t>Verify there are minimum two devices (Desktop, Laptop, Phones etc) should be available or not</t>
+  </si>
+  <si>
+    <t>Verify that Chat application has been installed in two devices at least or not</t>
+  </si>
+  <si>
+    <t>Verify that any Medium like Internet, Wifi, Bluetooth, Public Switched Telephone Network, W-Lan Network, Lan Network etc. should be available for the Chat functionality or not</t>
+  </si>
+  <si>
+    <t>Verify that Chat application should be launch or not.</t>
+  </si>
+  <si>
+    <t>Verify that Chat application should be launch.</t>
+  </si>
+  <si>
+    <t>Verify that Users are able to send requests to other Users for chat.</t>
+  </si>
+  <si>
+    <t>Verify that how many number of words or characters can be send in a time or not</t>
+  </si>
+  <si>
+    <t>Verify that Status (Active, Inactive, Invisible, etc.) of User is changing.</t>
+  </si>
+  <si>
+    <t>Verify that User is able to create Account in Chat application.</t>
+  </si>
+  <si>
+    <t>Verify that User is able to create Account in Chat application or not</t>
+  </si>
+  <si>
+    <t>Verify that User is able to Login in a system simultaneously with two or more different IDs </t>
+  </si>
+  <si>
+    <t>Verify that User is able to Login in a system simultaneously with two or more different IDs or not</t>
+  </si>
+  <si>
+    <t>Verify that User is able to send messages to other offline User or not</t>
+  </si>
+  <si>
+    <t>Verify that User is able to see the time of comment in Chat.</t>
+  </si>
+  <si>
+    <t>Verify that User is able to sent special characters in Chat.</t>
+  </si>
+  <si>
+    <t>Verify that Users are able to create a Chat group.</t>
+  </si>
+  <si>
+    <t>Verify that Users are able to Chat with their group.</t>
+  </si>
+  <si>
+    <t>Verify that Users are able to Chat with their group or not</t>
+  </si>
+  <si>
+    <t>check if the power button of the coffee vending machine is working correctly after pressing the power button.</t>
+  </si>
+  <si>
+    <t>check the indicator lights are displaying correctly when the coffee vending machine is going to switch off or on.</t>
+  </si>
+  <si>
+    <t>check the former up; the coffee vending machine is working as expected.</t>
+  </si>
+  <si>
+    <t>check the temperature of is served coffee should be the same temperature</t>
+  </si>
+  <si>
+    <t>check if some ingredients if finished. Then it should display an error message on the LED screen.</t>
+  </si>
+  <si>
+    <t>check if a button is pressed multiple times; then, the operation should be performed multiple times. If you have pushed the button five times the coffee button, five should be served.</t>
+  </si>
+  <si>
+    <t>check there should be a button for passes for extra coffee in the machine</t>
+  </si>
+  <si>
+    <t>check if the coffee vending machine is built as per the specification document.</t>
+  </si>
+  <si>
+    <t>check if the brand logo is visible in the specification document.</t>
+  </si>
+  <si>
+    <t>check the amount of coffee served should be equal to the specification.</t>
+  </si>
+  <si>
+    <t>check all the buttons present on the coffee vending machine are working correctly.</t>
+  </si>
+  <si>
+    <t>check for the cup holder dimension as per specification/ or market standard.</t>
+  </si>
+  <si>
+    <t>check that the power cord of the oven is long enough</t>
+  </si>
+  <si>
+    <t>check that the usage instruction or user manuals have clear instructions.</t>
+  </si>
+  <si>
+    <t>check the oven’s functionality with different kinds of container material.</t>
+  </si>
+  <si>
+    <t>check that the temperature regulator works correctly.</t>
+  </si>
+  <si>
+    <t>check that the temperature regulator is smooth to operate.</t>
+  </si>
+  <si>
+    <t>check that the digital display is clearly visible and functions correctly.</t>
+  </si>
+  <si>
+    <t>check that the text written over the oven’s body is clearly readable.</t>
+  </si>
+  <si>
+    <t>check the battery requirement of the microwave oven and check that it function’s smoothly at that power.</t>
+  </si>
+  <si>
+    <t>check that the oven’s door opens smoothly.</t>
+  </si>
+  <si>
+    <t>check that the oven’s door gets closed properly.</t>
+  </si>
+  <si>
+    <t>check the ovens functioning with minimum and Maximum attainable temperature.</t>
+  </si>
+  <si>
+    <t>check that the oven heats the food at the desired temperature properly.</t>
+  </si>
+  <si>
+    <t>check the maximum capacity of the oven and test its functioning with that volume of food.</t>
+  </si>
+  <si>
+    <t>check oven’s functionality with different kinds of food – solid, liquid.</t>
+  </si>
+  <si>
+    <t>check the oven’s functionality with different food at different temperatures.</t>
+  </si>
+  <si>
+    <t>check if the card reader is working correctly. A screen should ask you to insert the pin after inserting the valid card.</t>
+  </si>
+  <si>
+    <t>check if the cash dispenser is working as expected.</t>
+  </si>
+  <si>
+    <t>check if the receipt printer is working correctly. Which means it can print the data on the paper and the paper comes out properly.</t>
+  </si>
+  <si>
+    <t>check if the Screen buttons are working correctly. For touch screen: check if it is operational and working as per the expectations.</t>
+  </si>
+  <si>
+    <t>check if the text on the screen button is visible clearly.</t>
+  </si>
+  <si>
+    <t>check the font of the text on the screen buttons.</t>
+  </si>
+  <si>
+    <t>check each number button on the Keypad.</t>
+  </si>
+  <si>
+    <t>check the functionality of the Cancel button on the Keypad.</t>
+  </si>
+  <si>
+    <t>check the text color of the keypad buttons. The numbers should be visible clearly.</t>
+  </si>
+  <si>
+    <t>check the language selection option. If the messages or data are displayed in the selected language.</t>
+  </si>
+  <si>
+    <t>check the receipt printing functionality after a valid transaction. Whether the printed data is correct or not.</t>
+  </si>
+  <si>
+    <t>check how much time the system takes to log out.</t>
+  </si>
+  <si>
+    <t>check the timeout session functionality.</t>
+  </si>
+  <si>
+    <t>check the deposit slot functionality depending on its capability (Cash or cheque or both) by inserting a valid cheque.</t>
+  </si>
+  <si>
+    <t>check using different cards (Cards of different banks).</t>
+  </si>
+  <si>
+    <t>check the cash withdrawal functionality by inserting some valid amount.</t>
+  </si>
+  <si>
+    <t> check if a user can perform only one cash withdrawal transaction per PIN insert.</t>
+  </si>
+  <si>
+    <t>check the different combinations of operation and check if there will be a power loss in the middle of the operation.</t>
+  </si>
+  <si>
+    <t>check that the material used in the door body and its parts is as per the specifications</t>
+  </si>
+  <si>
+    <t> check if the door is sliding door or rotating door</t>
+  </si>
+  <si>
+    <t> check the position, quality and strength of hinges</t>
+  </si>
+  <si>
+    <t>check the type of locks in the door</t>
+  </si>
+  <si>
+    <t>check the number of locks in the door interior side or exterior side</t>
+  </si>
+  <si>
+    <t>check if the door is having peek-hole or not</t>
+  </si>
+  <si>
+    <t> check if the door closes automatically or not – spring mechanism</t>
+  </si>
+  <si>
+    <t>check the door condition when used extensively with water</t>
+  </si>
+  <si>
+    <t> check the door condition in different climatic conditions- temperature, humidity etc.</t>
+  </si>
+  <si>
+    <t>check the amount of force- pull or push required to open or close the door</t>
+  </si>
+  <si>
+    <t> check the door is single door or bi-folded door</t>
+  </si>
+  <si>
+    <t>check the door opens inwards or outwards</t>
+  </si>
+  <si>
+    <t>check the pen stand color as per the specification</t>
+  </si>
+  <si>
+    <t>check the pen stand stand on all land</t>
+  </si>
+  <si>
+    <t>check the types of shape of the pen stand</t>
+  </si>
+  <si>
+    <t>check the types of material of pen stand</t>
+  </si>
+  <si>
+    <t>check the size of pen stand</t>
+  </si>
+  <si>
+    <t>check the types of test pen stand ( durability,waterproof)</t>
+  </si>
+  <si>
+    <t>Verify that all the read and unread emails are displayed in the inbox</t>
+  </si>
+  <si>
+    <t>Verify that all the read and unread emails are displayed in the inbox or not</t>
+  </si>
+  <si>
+    <t>Verify that the recently received email or unread emails are highlighted in bold in the Inbox section.</t>
+  </si>
+  <si>
+    <t>Verify that the recently received email or unread emails are highlighted in bold in the Inbox section or not</t>
+  </si>
+  <si>
+    <t>Verify that the recently received email has correct sender‘s name or email id, subject of the email, its preview and date or time.</t>
+  </si>
+  <si>
+    <t>Verify that the recently received email has correct sender‘s name or email id, subject of the email, its preview and date or time or not</t>
+  </si>
+  <si>
+    <t>Verifty that the recently received email’s sender’s name or email id, subject of the email, and date or time should be in bold and preivew text shouldn’t be in bold.</t>
+  </si>
+  <si>
+    <t>Verifty that the recently received email’s sender’s name or email id, subject of the email, and date or time should be in bold and preivew text shouldn’t be in bold or not</t>
+  </si>
+  <si>
+    <t>Verify that the attachment in the email is downloadable</t>
+  </si>
+  <si>
+    <t>Verify that the attachment in the email is downloadable or not</t>
+  </si>
+  <si>
+    <t>Verify that the Archive, Delete, Mark as read, Snooze options are displaying on hovering the unread email.</t>
+  </si>
+  <si>
+    <t>Verify that the Archive, Delete, Mark as read, Snooze options are displaying on hovering the unread email or not</t>
+  </si>
+  <si>
+    <t>Verify that the attachments can be downloaded as a single zip file.</t>
+  </si>
+  <si>
+    <t>Verify that the attachments can be downloaded as a single zip file or not</t>
+  </si>
+  <si>
+    <t>Verify that the attachments can be downloaded individually.</t>
+  </si>
+  <si>
+    <t>Verify that the attachments can be downloaded individually or not</t>
+  </si>
+  <si>
+    <t>Verify that the attachments can be viewable in the browser itself without downlading.</t>
+  </si>
+  <si>
+    <t>Verify that the attachments can be viewable in the browser itself without downlading or not</t>
+  </si>
+  <si>
+    <t>Verify that the attachment is downloading in zip format, if the attachment size is more than 1 MB.</t>
+  </si>
+  <si>
+    <t>Verify that the attachment is downloading in zip format, if the attachment size is more than 1 MB or not</t>
+  </si>
+  <si>
+    <t>Verify that the attachments are scanned for viruses once we try to download the file.</t>
+  </si>
+  <si>
+    <t>Verify that the attachments are scanned for viruses once we try to download the file or not</t>
+  </si>
+  <si>
+    <t>Verify that the Reply and Forward buttons are displaying in the bottom of the email content.</t>
+  </si>
+  <si>
+    <t>Verify that the Reply and Forward buttons are displaying in the bottom of the email content or not</t>
+  </si>
+  <si>
+    <t>Verify that all the read emails are highlighted.</t>
+  </si>
+  <si>
+    <t>Verify that all the read emails are not highlighted.</t>
+  </si>
+  <si>
+    <t>Verify that unread emails count is displayed beside ‘Inbox’ text in the left sidebar of Gmail.</t>
+  </si>
+  <si>
+    <t>Verify that unread emails count is displayed beside ‘Inbox’ text in the left sidebar of Gmail or not</t>
+  </si>
+  <si>
+    <t>Verify that email recipients in BCC visible to other users in the TO, CC or BCC section.</t>
+  </si>
+  <si>
+    <t>Verify that email recipients in BCC are not visible to other users in the TO, CC or BCC section.</t>
+  </si>
+  <si>
+    <t>Verify that on the product page, the user can select the desired attribute of the product e.g. size, color, etc.</t>
+  </si>
+  <si>
+    <t>Verify that the user can add to the cart one or more products.</t>
+  </si>
+  <si>
+    <t>verify the user can see the price correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the user can apply all type of offer applied sucessfully. </t>
+  </si>
+  <si>
+    <t>Verify that on the product page, the user can select the desired attribute of the product e.g. size, color, etc. or not</t>
+  </si>
+  <si>
+    <t>Verify that the user can add to the cart one or more products or not</t>
+  </si>
+  <si>
+    <t>verify that the user can click the buy now button to product successfully add to cart.</t>
+  </si>
+  <si>
+    <t>verify that the user can click the buy now button to product successfully add to cart or not</t>
+  </si>
+  <si>
+    <t>verify the user can see the price correctly or not</t>
+  </si>
+  <si>
+    <t>verify the user can apply all type of offer applied sucessfully or not</t>
+  </si>
+  <si>
+    <t>verify the user can add a pincode to check a delivery avaliable.</t>
+  </si>
+  <si>
+    <t>verify the user can add a pincode to check a delivery avaliable or not</t>
+  </si>
+  <si>
+    <t>Check that user is also able to change the day on wrist watch if it is available.</t>
+  </si>
+  <si>
+    <t>Check that all the parts of wrist watch are properly fitted or not.</t>
+  </si>
+  <si>
+    <t>Check the design of wrist watch as per requirement or not.</t>
+  </si>
+  <si>
+    <t>check the wrist watch type - whether it is Analog wrist watch, Digital wrist watch or Smart wrist watch.</t>
+  </si>
+  <si>
+    <t>check that watch shows the correct time or not on the basis of  region.</t>
+  </si>
+  <si>
+    <t>Check that user is able to set the time or change the time on a wrist watch.</t>
+  </si>
+  <si>
+    <t>check that the Date, Time and other information in a wristwatch is properly visible to the user</t>
+  </si>
+  <si>
+    <t>check the watch properly fit on the wrist.</t>
+  </si>
+  <si>
+    <t>check the watch is waterproof.</t>
+  </si>
+  <si>
+    <t>check that the materials used for the wrist watch body are as per requirement.</t>
+  </si>
+  <si>
+    <t>check the colour, width, dial, and length of wrist watch.</t>
+  </si>
+  <si>
+    <t>check the wrist watch weight as per requirement</t>
+  </si>
+  <si>
+    <t>Check that all the parts of wrist watch are properly fitted</t>
+  </si>
+  <si>
+    <t>check the Logo and name of company showing properly on watch.</t>
+  </si>
+  <si>
+    <t>check the functionality of the button of the watch working fine.</t>
+  </si>
+  <si>
+    <t>Check whether the lift can move up and down</t>
+  </si>
+  <si>
+    <t>Check whether the lift moves to the corresponding floor as the button of the floor is clicked</t>
+  </si>
+  <si>
+    <t>Check whether the lift has buttons outside to stop the lift by pressing the direction indicator button.</t>
+  </si>
+  <si>
+    <t>Check whether the lift stops at that current floor when up/down buttons at a particular floor are pressed outside the lift.</t>
+  </si>
+  <si>
+    <t>Check whether the controls/buttons in the lift are self-explanatory.</t>
+  </si>
+  <si>
+    <t>Check whether the voice guide technology is working as expected.</t>
+  </si>
+  <si>
+    <t>Check whether the lift is making noise while moving up or down.</t>
+  </si>
+  <si>
+    <t>Check whether the lift interior has proper air ventilation.</t>
+  </si>
+  <si>
+    <t>Check how many runs the lift makes on power backup.</t>
+  </si>
+  <si>
+    <t>Check whether the lift indicates some alert message weight exceeds from standard.</t>
+  </si>
+  <si>
+    <t>Check whether the lift stops at each floor when all the floors are clicked in the control panel.</t>
+  </si>
+  <si>
+    <t>Check the landing speed of the lift is as per requirement.</t>
+  </si>
+  <si>
+    <t>Check the time duration for which doors remain open by default.</t>
+  </si>
+  <si>
+    <t>Check whether the total number of buttons inside the lift is as per requirement.</t>
+  </si>
+  <si>
+    <t>Check whether the total capacity of the lift is as per requirement.</t>
+  </si>
+  <si>
+    <t>Check if an admin can add others as Admin.</t>
+  </si>
+  <si>
+    <t>Check admin can remove it from the group.</t>
+  </si>
+  <si>
+    <t>Check admin can add users to the group.</t>
+  </si>
+  <si>
+    <t>Check admin can restrict users.</t>
+  </si>
+  <si>
+    <t>Check admin can remove others from admin.</t>
+  </si>
+  <si>
+    <t>Check if the admin can add people.</t>
+  </si>
+  <si>
+    <t>Check if the admin can add 250 people to a group.</t>
+  </si>
+  <si>
+    <t>Check the admin can delete people and add them back to the group.</t>
+  </si>
+  <si>
+    <t>Check if the admin user can able to delete people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check the admin user able to delete all people in the group
+</t>
+  </si>
+  <si>
+    <t>Check the admin user can able to ban users.</t>
+  </si>
+  <si>
+    <t>Check if the admin can change information/group name.</t>
+  </si>
+  <si>
+    <t>Check if the admin can change the group image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check every user can share information.
+</t>
+  </si>
+  <si>
+    <t>Users can share different media on WhatsApp, like photos, videos, documents, links, and simple text.</t>
+  </si>
+  <si>
+    <t>Check if the person is removed from the group; then, that user will cant see the updates.</t>
+  </si>
+  <si>
+    <t>check the instagram avaliable on mobile phone</t>
+  </si>
+  <si>
+    <t>check the instagram open succesfully on mobile phone</t>
+  </si>
+  <si>
+    <t>check the Camera should be available on the Mobile phone.</t>
+  </si>
+  <si>
+    <t>check the Camera Icon should be available on the instagram</t>
+  </si>
+  <si>
+    <t>check the availability of Led Flash and camera in the instagram</t>
+  </si>
+  <si>
+    <t>check the user can do a video call with one or more person</t>
+  </si>
+  <si>
+    <t>check the user can do chat a message with one or more persoon</t>
+  </si>
+  <si>
+    <t>check the all avaliable text on the chat</t>
+  </si>
+  <si>
+    <t>chewck the all avaliable emojis on the chat for instagram</t>
+  </si>
+  <si>
+    <t>check the user can sucessfully a sent or receiving a mesaages</t>
+  </si>
+  <si>
+    <t>check the user can do a group video call with someone</t>
+  </si>
+  <si>
+    <t>check the user can read the all chat like receiving and sending a message.</t>
+  </si>
+  <si>
+    <t>check the user can cleary show th ename of person when video call and messages are coming</t>
+  </si>
+  <si>
+    <t>check the user can clearly show the all person of face on video call</t>
+  </si>
+  <si>
+    <t>check the user can cleary hear the someone voice on videocall</t>
+  </si>
+  <si>
+    <t>check the whatsapp avaliable on user mobile phone</t>
+  </si>
+  <si>
+    <t>check the whatsapp properly working on mobile phone</t>
+  </si>
+  <si>
+    <t>check the user can tap the someone name on whatsapp app</t>
+  </si>
+  <si>
+    <t>check the user can tap the attchement icon</t>
+  </si>
+  <si>
+    <t>check the user can show the payment icon inside attchment icon</t>
+  </si>
+  <si>
+    <t>check the user can sucessfully a send a payment for someone have received</t>
+  </si>
+  <si>
+    <t>check the user can clearly show the proper message for send the paymeny for someone.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,13 +907,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF282829"/>
       <name val="Arial"/>
@@ -527,6 +928,35 @@
       <sz val="11"/>
       <color rgb="FF252830"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444340"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2D3748"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF2D3748"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2D3748"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -565,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -614,21 +1044,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,12 +1700,989 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="99" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <v>9</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="99" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="99" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="7">
+        <v>13</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="7">
+        <v>14</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="20">
+        <v>15</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:F12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="3:6" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <v>9</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="7">
+        <v>13</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C20" s="7">
+        <v>14</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C21" s="7">
+        <v>15</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="99" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="99" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="132" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <v>9</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="99" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="99" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C19" s="20">
+        <v>13</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="20">
+        <v>14</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C21" s="20">
+        <v>15</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:D24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="13">
+        <v>3</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="C10" s="13">
+        <v>4</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C11" s="13">
+        <v>5</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="13">
+        <v>6</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="C13" s="13">
+        <v>7</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="13">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="C15" s="13">
+        <v>9</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="C16" s="13">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="13">
+        <v>11</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="13">
+        <v>12</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="C19" s="13">
+        <v>13</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C20" s="13">
+        <v>14</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="13">
+        <v>15</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="99" x14ac:dyDescent="0.25">
+      <c r="C22" s="13">
+        <v>16</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <v>9</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C19" s="7">
+        <v>13</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="7">
+        <v>14</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C21" s="7">
+        <v>15</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="26">
+        <v>2</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C9" s="26">
+        <v>3</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="26">
+        <v>4</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="C11" s="26">
+        <v>5</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="C12" s="26">
+        <v>6</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="C13" s="26">
+        <v>7</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +2845,7 @@
   <dimension ref="C6:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
@@ -1436,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -1444,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1452,7 +2891,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
@@ -1460,7 +2899,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
@@ -1468,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1480,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1510,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="30.75" x14ac:dyDescent="0.25">
@@ -1518,7 +2957,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="30.75" x14ac:dyDescent="0.25">
@@ -1526,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1534,7 +2973,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1542,7 +2981,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
@@ -1550,7 +2989,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1558,7 +2997,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1566,7 +3005,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1574,7 +3013,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1582,7 +3021,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1590,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1598,7 +3037,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="30.75" x14ac:dyDescent="0.25">
@@ -1606,7 +3045,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="30.75" x14ac:dyDescent="0.25">
@@ -1614,7 +3053,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1656,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1664,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1672,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1680,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1688,7 +3127,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1696,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1704,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1712,7 +3151,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1720,7 +3159,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1728,7 +3167,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1736,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1744,7 +3183,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1752,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1760,7 +3199,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1768,7 +3207,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1776,7 +3215,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1784,7 +3223,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1792,7 +3231,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +3243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1826,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
@@ -1834,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -1842,7 +3281,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1850,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
@@ -1858,7 +3297,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
@@ -1866,7 +3305,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
@@ -1874,7 +3313,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -1882,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
@@ -1890,7 +3329,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -1898,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -1906,7 +3345,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
@@ -1914,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="33" x14ac:dyDescent="0.25">
@@ -1922,7 +3361,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1930,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1938,7 +3377,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +3391,7 @@
   <dimension ref="C6:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
@@ -1981,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
@@ -1989,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
@@ -1997,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="33" x14ac:dyDescent="0.25">
@@ -2005,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="3:4" ht="33" x14ac:dyDescent="0.25">
@@ -2013,7 +3452,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
@@ -2021,23 +3460,23 @@
         <v>7</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" ht="82.5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" ht="82.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="C15" s="7">
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="3:4" ht="33" x14ac:dyDescent="0.25">
@@ -2045,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="33" x14ac:dyDescent="0.25">
@@ -2053,7 +3492,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="33" x14ac:dyDescent="0.25">
@@ -2061,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="33" x14ac:dyDescent="0.25">
@@ -2069,7 +3508,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="33" x14ac:dyDescent="0.25">
@@ -2077,7 +3516,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="33" x14ac:dyDescent="0.25">
@@ -2085,7 +3524,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2119,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
@@ -2127,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -2135,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -2143,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
@@ -2151,7 +3590,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
@@ -2159,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
@@ -2167,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
@@ -2175,7 +3614,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
@@ -2183,7 +3622,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -2191,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -2199,7 +3638,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
@@ -2207,7 +3646,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -2215,7 +3654,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
@@ -2223,7 +3662,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
@@ -2231,7 +3670,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2241,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E24"/>
+  <dimension ref="C6:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,105 +3697,179 @@
         <v>0</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="D7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C9" s="17">
+        <v>3</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="17">
+        <v>4</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="114" x14ac:dyDescent="0.25">
+      <c r="C11" s="17">
+        <v>5</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="17">
+        <v>6</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C13" s="17">
+        <v>7</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="17">
+        <v>8</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="17">
+        <v>9</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="C16" s="17">
+        <v>10</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="17">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="17">
+        <v>12</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="17">
+        <v>13</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="17">
+        <v>14</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="17">
+        <v>15</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>